--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spon2-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Spon2</t>
   </si>
   <si>
     <t>Itgam</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H2">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I2">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J2">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N2">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P2">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q2">
-        <v>0.2552346693306667</v>
+        <v>0.01226636195555556</v>
       </c>
       <c r="R2">
-        <v>2.297112023976001</v>
+        <v>0.1103972576</v>
       </c>
       <c r="S2">
-        <v>0.0003285875490917876</v>
+        <v>1.863354326630056E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003285875490917875</v>
+        <v>1.863354326630055E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.436226</v>
+        <v>0.4500866666666667</v>
       </c>
       <c r="H3">
-        <v>1.308678</v>
+        <v>1.35026</v>
       </c>
       <c r="I3">
-        <v>0.02612337021374315</v>
+        <v>0.02628438542510526</v>
       </c>
       <c r="J3">
-        <v>0.02612337021374314</v>
+        <v>0.02628438542510525</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N3">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O3">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P3">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q3">
-        <v>20.036434253416</v>
+        <v>17.29060410105333</v>
       </c>
       <c r="R3">
-        <v>180.327908280744</v>
+        <v>155.61543690948</v>
       </c>
       <c r="S3">
-        <v>0.02579478266465136</v>
+        <v>0.02626575188183896</v>
       </c>
       <c r="T3">
-        <v>0.02579478266465136</v>
+        <v>0.02626575188183895</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -667,40 +667,40 @@
         <v>47.284298</v>
       </c>
       <c r="I4">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J4">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N4">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P4">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q4">
-        <v>9.221972222779558</v>
+        <v>0.4295515782755556</v>
       </c>
       <c r="R4">
-        <v>82.99775000501602</v>
+        <v>3.86596420448</v>
       </c>
       <c r="S4">
-        <v>0.01187231052279148</v>
+        <v>0.0006525217458857174</v>
       </c>
       <c r="T4">
-        <v>0.01187231052279148</v>
+        <v>0.0006525217458857172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,10 +729,10 @@
         <v>47.284298</v>
       </c>
       <c r="I5">
-        <v>0.9438725354525366</v>
+        <v>0.9204439983318276</v>
       </c>
       <c r="J5">
-        <v>0.9438725354525365</v>
+        <v>0.9204439983318274</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N5">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O5">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P5">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q5">
-        <v>723.9433444253893</v>
+        <v>605.4938137204892</v>
       </c>
       <c r="R5">
-        <v>6515.490099828504</v>
+        <v>5449.444323484404</v>
       </c>
       <c r="S5">
-        <v>0.9320002249297452</v>
+        <v>0.9197914765859418</v>
       </c>
       <c r="T5">
-        <v>0.932000224929745</v>
+        <v>0.9197914765859417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H6">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I6">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J6">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.5850973333333335</v>
+        <v>0.02725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.755292</v>
+        <v>0.08176</v>
       </c>
       <c r="O6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884383</v>
       </c>
       <c r="P6">
-        <v>0.01257829852745884</v>
+        <v>0.0007089206372884382</v>
       </c>
       <c r="Q6">
-        <v>0.2931507318226668</v>
+        <v>0.02459901310222222</v>
       </c>
       <c r="R6">
-        <v>2.638356586404</v>
+        <v>0.22139111792</v>
       </c>
       <c r="S6">
-        <v>0.0003774004555755715</v>
+        <v>3.736778489085374E-05</v>
       </c>
       <c r="T6">
-        <v>0.0003774004555755714</v>
+        <v>3.736778489085373E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +832,13 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5010290000000001</v>
+        <v>0.9026056666666666</v>
       </c>
       <c r="H7">
-        <v>1.503087</v>
+        <v>2.707817</v>
       </c>
       <c r="I7">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417152</v>
       </c>
       <c r="J7">
-        <v>0.0300040943337204</v>
+        <v>0.05271081546417151</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>45.931316</v>
+        <v>38.416166</v>
       </c>
       <c r="N7">
-        <v>137.793948</v>
+        <v>115.248498</v>
       </c>
       <c r="O7">
-        <v>0.9874217014725413</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="P7">
-        <v>0.9874217014725412</v>
+        <v>0.9992910793627116</v>
       </c>
       <c r="Q7">
-        <v>23.012921324164</v>
+        <v>34.67464912320733</v>
       </c>
       <c r="R7">
-        <v>207.116291917476</v>
+        <v>312.071842108866</v>
       </c>
       <c r="S7">
-        <v>0.02962669387814484</v>
+        <v>0.05267344767928066</v>
       </c>
       <c r="T7">
-        <v>0.02962669387814483</v>
+        <v>0.05267344767928065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.009603</v>
+      </c>
+      <c r="H8">
+        <v>0.028809</v>
+      </c>
+      <c r="I8">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J8">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02725333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.08176</v>
+      </c>
+      <c r="O8">
+        <v>0.0007089206372884383</v>
+      </c>
+      <c r="P8">
+        <v>0.0007089206372884382</v>
+      </c>
+      <c r="Q8">
+        <v>0.00026171376</v>
+      </c>
+      <c r="R8">
+        <v>0.00235542384</v>
+      </c>
+      <c r="S8">
+        <v>3.975632455666707E-07</v>
+      </c>
+      <c r="T8">
+        <v>3.975632455666705E-07</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.009603</v>
+      </c>
+      <c r="H9">
+        <v>0.028809</v>
+      </c>
+      <c r="I9">
+        <v>0.0005608007788958107</v>
+      </c>
+      <c r="J9">
+        <v>0.0005608007788958106</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>38.416166</v>
+      </c>
+      <c r="N9">
+        <v>115.248498</v>
+      </c>
+      <c r="O9">
+        <v>0.9992910793627116</v>
+      </c>
+      <c r="P9">
+        <v>0.9992910793627116</v>
+      </c>
+      <c r="Q9">
+        <v>0.368910442098</v>
+      </c>
+      <c r="R9">
+        <v>3.320193978882</v>
+      </c>
+      <c r="S9">
+        <v>0.000560403215650244</v>
+      </c>
+      <c r="T9">
+        <v>0.0005604032156502439</v>
       </c>
     </row>
   </sheetData>
